--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>56.05275600000001</v>
+        <v>162.139547</v>
       </c>
       <c r="H2">
-        <v>168.158268</v>
+        <v>486.418641</v>
       </c>
       <c r="I2">
-        <v>0.0661711278023414</v>
+        <v>0.1429713321294387</v>
       </c>
       <c r="J2">
-        <v>0.06617112780234141</v>
+        <v>0.1429713321294388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N2">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q2">
-        <v>233.541061288956</v>
+        <v>756.0238473794747</v>
       </c>
       <c r="R2">
-        <v>2101.869551600604</v>
+        <v>6804.214626415273</v>
       </c>
       <c r="S2">
-        <v>0.04715986060378802</v>
+        <v>0.1047264233914007</v>
       </c>
       <c r="T2">
-        <v>0.04715986060378802</v>
+        <v>0.1047264233914007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>56.05275600000001</v>
+        <v>162.139547</v>
       </c>
       <c r="H3">
-        <v>168.158268</v>
+        <v>486.418641</v>
       </c>
       <c r="I3">
-        <v>0.0661711278023414</v>
+        <v>0.1429713321294387</v>
       </c>
       <c r="J3">
-        <v>0.06617112780234141</v>
+        <v>0.1429713321294388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q3">
-        <v>37.307929655016</v>
+        <v>107.917812529542</v>
       </c>
       <c r="R3">
-        <v>335.771366895144</v>
+        <v>971.2603127658779</v>
       </c>
       <c r="S3">
-        <v>0.007533736261348771</v>
+        <v>0.01494906088692442</v>
       </c>
       <c r="T3">
-        <v>0.007533736261348773</v>
+        <v>0.01494906088692442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.05275600000001</v>
+        <v>162.139547</v>
       </c>
       <c r="H4">
-        <v>168.158268</v>
+        <v>486.418641</v>
       </c>
       <c r="I4">
-        <v>0.0661711278023414</v>
+        <v>0.1429713321294387</v>
       </c>
       <c r="J4">
-        <v>0.06617112780234141</v>
+        <v>0.1429713321294388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N4">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q4">
-        <v>56.83805511156002</v>
+        <v>127.9956607275833</v>
       </c>
       <c r="R4">
-        <v>511.5424960040401</v>
+        <v>1151.96094654825</v>
       </c>
       <c r="S4">
-        <v>0.01147753093720461</v>
+        <v>0.01773029753503367</v>
       </c>
       <c r="T4">
-        <v>0.01147753093720461</v>
+        <v>0.01773029753503367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>238.00471</v>
+        <v>162.139547</v>
       </c>
       <c r="H5">
-        <v>714.01413</v>
+        <v>486.418641</v>
       </c>
       <c r="I5">
-        <v>0.2809681665424123</v>
+        <v>0.1429713321294387</v>
       </c>
       <c r="J5">
-        <v>0.2809681665424124</v>
+        <v>0.1429713321294388</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.166450999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N5">
-        <v>12.499353</v>
+        <v>0.241735</v>
       </c>
       <c r="O5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q5">
-        <v>991.6349619842099</v>
+        <v>13.06493446468167</v>
       </c>
       <c r="R5">
-        <v>8924.71465785789</v>
+        <v>117.584410182135</v>
       </c>
       <c r="S5">
-        <v>0.200244729209122</v>
+        <v>0.001809789285181616</v>
       </c>
       <c r="T5">
-        <v>0.2002447292091221</v>
+        <v>0.001809789285181617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>238.00471</v>
+        <v>162.139547</v>
       </c>
       <c r="H6">
-        <v>714.01413</v>
+        <v>486.418641</v>
       </c>
       <c r="I6">
-        <v>0.2809681665424123</v>
+        <v>0.1429713321294387</v>
       </c>
       <c r="J6">
-        <v>0.2809681665424124</v>
+        <v>0.1429713321294388</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6655859999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N6">
-        <v>1.996758</v>
+        <v>0.50166</v>
       </c>
       <c r="O6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q6">
-        <v>158.41260291006</v>
+        <v>27.11297504934</v>
       </c>
       <c r="R6">
-        <v>1425.71342619054</v>
+        <v>244.01677544406</v>
       </c>
       <c r="S6">
-        <v>0.0319888769447625</v>
+        <v>0.003755761030898338</v>
       </c>
       <c r="T6">
-        <v>0.03198887694476251</v>
+        <v>0.00375576103089834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>714.01413</v>
       </c>
       <c r="I7">
-        <v>0.2809681665424123</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="J7">
-        <v>0.2809681665424124</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01401</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N7">
-        <v>3.04203</v>
+        <v>13.988392</v>
       </c>
       <c r="O7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q7">
-        <v>241.3391559871</v>
+        <v>1109.767727108773</v>
       </c>
       <c r="R7">
-        <v>2172.0524038839</v>
+        <v>9987.909543978962</v>
       </c>
       <c r="S7">
-        <v>0.04873456038852775</v>
+        <v>0.1537279614368698</v>
       </c>
       <c r="T7">
-        <v>0.04873456038852776</v>
+        <v>0.1537279614368698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.0396663333333</v>
+        <v>238.00471</v>
       </c>
       <c r="H8">
-        <v>378.118999</v>
+        <v>714.01413</v>
       </c>
       <c r="I8">
-        <v>0.1487917359336884</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="J8">
-        <v>0.1487917359336884</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.166450999999999</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N8">
-        <v>12.499353</v>
+        <v>1.996758</v>
       </c>
       <c r="O8">
-        <v>0.7126954333415383</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P8">
-        <v>0.7126954333415383</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q8">
-        <v>525.1380938341829</v>
+        <v>158.41260291006</v>
       </c>
       <c r="R8">
-        <v>4726.242844507647</v>
+        <v>1425.71342619054</v>
       </c>
       <c r="S8">
-        <v>0.1060431907188998</v>
+        <v>0.02194373283382116</v>
       </c>
       <c r="T8">
-        <v>0.1060431907188998</v>
+        <v>0.02194373283382117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126.0396663333333</v>
+        <v>238.00471</v>
       </c>
       <c r="H9">
-        <v>378.118999</v>
+        <v>714.01413</v>
       </c>
       <c r="I9">
-        <v>0.1487917359336884</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="J9">
-        <v>0.1487917359336884</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6655859999999999</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N9">
-        <v>1.996758</v>
+        <v>2.36825</v>
       </c>
       <c r="O9">
-        <v>0.1138523176430159</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P9">
-        <v>0.1138523176430159</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q9">
-        <v>83.89023735613799</v>
+        <v>187.8848848191666</v>
       </c>
       <c r="R9">
-        <v>755.0121362052419</v>
+        <v>1690.9639633725</v>
       </c>
       <c r="S9">
-        <v>0.01694028398217802</v>
+        <v>0.02602631129245355</v>
       </c>
       <c r="T9">
-        <v>0.01694028398217802</v>
+        <v>0.02602631129245355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>126.0396663333333</v>
+        <v>238.00471</v>
       </c>
       <c r="H10">
-        <v>378.118999</v>
+        <v>714.01413</v>
       </c>
       <c r="I10">
-        <v>0.1487917359336884</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="J10">
-        <v>0.1487917359336884</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.01401</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N10">
-        <v>3.04203</v>
+        <v>0.241735</v>
       </c>
       <c r="O10">
-        <v>0.1734522490154458</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P10">
-        <v>0.1734522490154458</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q10">
-        <v>127.8054820586633</v>
+        <v>19.17802285728333</v>
       </c>
       <c r="R10">
-        <v>1150.24933852797</v>
+        <v>172.60220571555</v>
       </c>
       <c r="S10">
-        <v>0.02580826123261058</v>
+        <v>0.002656590461429857</v>
       </c>
       <c r="T10">
-        <v>0.02580826123261057</v>
+        <v>0.002656590461429858</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>130.8644813333333</v>
+        <v>238.00471</v>
       </c>
       <c r="H11">
-        <v>392.593444</v>
+        <v>714.01413</v>
       </c>
       <c r="I11">
-        <v>0.1544875031496242</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="J11">
-        <v>0.1544875031496243</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>4.166450999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N11">
-        <v>12.499353</v>
+        <v>0.50166</v>
       </c>
       <c r="O11">
-        <v>0.7126954333415383</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P11">
-        <v>0.7126954333415383</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q11">
-        <v>545.2404491157479</v>
+        <v>39.7991476062</v>
       </c>
       <c r="R11">
-        <v>4907.164042041732</v>
+        <v>358.1923284558</v>
       </c>
       <c r="S11">
-        <v>0.1101025380030737</v>
+        <v>0.005513083214598227</v>
       </c>
       <c r="T11">
-        <v>0.1101025380030737</v>
+        <v>0.005513083214598227</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>130.8644813333333</v>
+        <v>164.2433473333333</v>
       </c>
       <c r="H12">
-        <v>392.593444</v>
+        <v>492.730042</v>
       </c>
       <c r="I12">
-        <v>0.1544875031496242</v>
+        <v>0.1448264201801721</v>
       </c>
       <c r="J12">
-        <v>0.1544875031496243</v>
+        <v>0.1448264201801722</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6655859999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N12">
-        <v>1.996758</v>
+        <v>13.988392</v>
       </c>
       <c r="O12">
-        <v>0.1138523176430159</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P12">
-        <v>0.1138523176430159</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q12">
-        <v>87.10156667272797</v>
+        <v>765.8334419636071</v>
       </c>
       <c r="R12">
-        <v>783.9141000545519</v>
+        <v>6892.500977672464</v>
       </c>
       <c r="S12">
-        <v>0.01758876028046743</v>
+        <v>0.1060852743843644</v>
       </c>
       <c r="T12">
-        <v>0.01758876028046743</v>
+        <v>0.1060852743843645</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>130.8644813333333</v>
+        <v>164.2433473333333</v>
       </c>
       <c r="H13">
-        <v>392.593444</v>
+        <v>492.730042</v>
       </c>
       <c r="I13">
-        <v>0.1544875031496242</v>
+        <v>0.1448264201801721</v>
       </c>
       <c r="J13">
-        <v>0.1544875031496243</v>
+        <v>0.1448264201801722</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.01401</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N13">
-        <v>3.04203</v>
+        <v>1.996758</v>
       </c>
       <c r="O13">
-        <v>0.1734522490154458</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P13">
-        <v>0.1734522490154458</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q13">
-        <v>132.6978927168133</v>
+        <v>109.318072578204</v>
       </c>
       <c r="R13">
-        <v>1194.28103445132</v>
+        <v>983.8626532038359</v>
       </c>
       <c r="S13">
-        <v>0.02679620486608309</v>
+        <v>0.01514302861323694</v>
       </c>
       <c r="T13">
-        <v>0.02679620486608309</v>
+        <v>0.01514302861323694</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>151.033905</v>
+        <v>164.2433473333333</v>
       </c>
       <c r="H14">
-        <v>453.101715</v>
+        <v>492.730042</v>
       </c>
       <c r="I14">
-        <v>0.1782978134070997</v>
+        <v>0.1448264201801721</v>
       </c>
       <c r="J14">
-        <v>0.1782978134070997</v>
+        <v>0.1448264201801722</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,43 +1305,43 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.166450999999999</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N14">
-        <v>12.499353</v>
+        <v>2.36825</v>
       </c>
       <c r="O14">
-        <v>0.7126954333415383</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P14">
-        <v>0.7126954333415383</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q14">
-        <v>629.2753645211549</v>
+        <v>129.6564357740555</v>
       </c>
       <c r="R14">
-        <v>5663.478280690394</v>
+        <v>1166.9079219665</v>
       </c>
       <c r="S14">
-        <v>0.1270720373900217</v>
+        <v>0.01796035248803229</v>
       </c>
       <c r="T14">
-        <v>0.1270720373900217</v>
+        <v>0.0179603524880323</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>151.033905</v>
+        <v>164.2433473333333</v>
       </c>
       <c r="H15">
-        <v>453.101715</v>
+        <v>492.730042</v>
       </c>
       <c r="I15">
-        <v>0.1782978134070997</v>
+        <v>0.1448264201801721</v>
       </c>
       <c r="J15">
-        <v>0.1782978134070997</v>
+        <v>0.1448264201801722</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.6655859999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N15">
-        <v>1.996758</v>
+        <v>0.241735</v>
       </c>
       <c r="O15">
-        <v>0.1138523176430159</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P15">
-        <v>0.1138523176430159</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q15">
-        <v>100.52605269333</v>
+        <v>13.23445518920778</v>
       </c>
       <c r="R15">
-        <v>904.7344742399698</v>
+        <v>119.11009670287</v>
       </c>
       <c r="S15">
-        <v>0.02029961928708028</v>
+        <v>0.001833271744408101</v>
       </c>
       <c r="T15">
-        <v>0.02029961928708029</v>
+        <v>0.001833271744408102</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>151.033905</v>
+        <v>164.2433473333333</v>
       </c>
       <c r="H16">
-        <v>453.101715</v>
+        <v>492.730042</v>
       </c>
       <c r="I16">
-        <v>0.1782978134070997</v>
+        <v>0.1448264201801721</v>
       </c>
       <c r="J16">
-        <v>0.1782978134070997</v>
+        <v>0.1448264201801722</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.01401</v>
+        <v>0.16722</v>
       </c>
       <c r="N16">
-        <v>3.04203</v>
+        <v>0.50166</v>
       </c>
       <c r="O16">
-        <v>0.1734522490154458</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P16">
-        <v>0.1734522490154458</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q16">
-        <v>153.14989000905</v>
+        <v>27.46477254108</v>
       </c>
       <c r="R16">
-        <v>1378.34901008145</v>
+        <v>247.18295286972</v>
       </c>
       <c r="S16">
-        <v>0.03092615672999775</v>
+        <v>0.003804492950130383</v>
       </c>
       <c r="T16">
-        <v>0.03092615672999775</v>
+        <v>0.003804492950130384</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>145.0922953333333</v>
+        <v>212.5229033333333</v>
       </c>
       <c r="H17">
-        <v>435.276886</v>
+        <v>637.56871</v>
       </c>
       <c r="I17">
-        <v>0.1712836531648339</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="J17">
-        <v>0.1712836531648339</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N17">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O17">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P17">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q17">
-        <v>604.5199389838619</v>
+        <v>990.9512269349245</v>
       </c>
       <c r="R17">
-        <v>5440.679450854757</v>
+        <v>8918.561042414321</v>
       </c>
       <c r="S17">
-        <v>0.122073077416633</v>
+        <v>0.1372691855051032</v>
       </c>
       <c r="T17">
-        <v>0.122073077416633</v>
+        <v>0.1372691855051032</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>145.0922953333333</v>
+        <v>212.5229033333333</v>
       </c>
       <c r="H18">
-        <v>435.276886</v>
+        <v>637.56871</v>
       </c>
       <c r="I18">
-        <v>0.1712836531648339</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="J18">
-        <v>0.1712836531648339</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,27 +1559,27 @@
         <v>1.996758</v>
       </c>
       <c r="O18">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P18">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q18">
-        <v>96.57140048173198</v>
+        <v>141.45226913802</v>
       </c>
       <c r="R18">
-        <v>869.1426043355879</v>
+        <v>1273.07042224218</v>
       </c>
       <c r="S18">
-        <v>0.01950104088717883</v>
+        <v>0.01959434253135019</v>
       </c>
       <c r="T18">
-        <v>0.01950104088717883</v>
+        <v>0.01959434253135019</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>145.0922953333333</v>
+        <v>212.5229033333333</v>
       </c>
       <c r="H19">
-        <v>435.276886</v>
+        <v>637.56871</v>
       </c>
       <c r="I19">
-        <v>0.1712836531648339</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="J19">
-        <v>0.1712836531648339</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,772 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N19">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O19">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P19">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q19">
-        <v>147.1250383909534</v>
+        <v>167.7691219397222</v>
       </c>
       <c r="R19">
-        <v>1324.12534551858</v>
+        <v>1509.9220974575</v>
       </c>
       <c r="S19">
-        <v>0.02970953486102203</v>
+        <v>0.02323982260237349</v>
       </c>
       <c r="T19">
-        <v>0.02970953486102202</v>
+        <v>0.0232398226023735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>212.5229033333333</v>
+      </c>
+      <c r="H20">
+        <v>637.56871</v>
+      </c>
+      <c r="I20">
+        <v>0.1873983439560406</v>
+      </c>
+      <c r="J20">
+        <v>0.1873983439560406</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.241735</v>
+      </c>
+      <c r="O20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q20">
+        <v>17.12474134576111</v>
+      </c>
+      <c r="R20">
+        <v>154.12267211185</v>
+      </c>
+      <c r="S20">
+        <v>0.002372164474521168</v>
+      </c>
+      <c r="T20">
+        <v>0.002372164474521168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>212.5229033333333</v>
+      </c>
+      <c r="H21">
+        <v>637.56871</v>
+      </c>
+      <c r="I21">
+        <v>0.1873983439560406</v>
+      </c>
+      <c r="J21">
+        <v>0.1873983439560406</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.16722</v>
+      </c>
+      <c r="N21">
+        <v>0.50166</v>
+      </c>
+      <c r="O21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q21">
+        <v>35.5380798954</v>
+      </c>
+      <c r="R21">
+        <v>319.8427190586</v>
+      </c>
+      <c r="S21">
+        <v>0.004922828842692573</v>
+      </c>
+      <c r="T21">
+        <v>0.004922828842692573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>203.7327576666667</v>
+      </c>
+      <c r="H22">
+        <v>611.198273</v>
+      </c>
+      <c r="I22">
+        <v>0.1796473735183648</v>
+      </c>
+      <c r="J22">
+        <v>0.1796473735183648</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.662797333333334</v>
+      </c>
+      <c r="N22">
+        <v>13.988392</v>
+      </c>
+      <c r="O22">
+        <v>0.7324994586787992</v>
+      </c>
+      <c r="P22">
+        <v>0.7324994586787993</v>
+      </c>
+      <c r="Q22">
+        <v>949.9645591607796</v>
+      </c>
+      <c r="R22">
+        <v>8549.681032447017</v>
+      </c>
+      <c r="S22">
+        <v>0.1315916038552702</v>
+      </c>
+      <c r="T22">
+        <v>0.1315916038552703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>203.7327576666667</v>
+      </c>
+      <c r="H23">
+        <v>611.198273</v>
+      </c>
+      <c r="I23">
+        <v>0.1796473735183648</v>
+      </c>
+      <c r="J23">
+        <v>0.1796473735183648</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N23">
+        <v>1.996758</v>
+      </c>
+      <c r="O23">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P23">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q23">
+        <v>135.601671244326</v>
+      </c>
+      <c r="R23">
+        <v>1220.415041198934</v>
+      </c>
+      <c r="S23">
+        <v>0.01878390223342623</v>
+      </c>
+      <c r="T23">
+        <v>0.01878390223342624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>203.7327576666667</v>
+      </c>
+      <c r="H24">
+        <v>611.198273</v>
+      </c>
+      <c r="I24">
+        <v>0.1796473735183648</v>
+      </c>
+      <c r="J24">
+        <v>0.1796473735183648</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N24">
+        <v>2.36825</v>
+      </c>
+      <c r="O24">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P24">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q24">
+        <v>160.8300344480277</v>
+      </c>
+      <c r="R24">
+        <v>1447.47031003225</v>
+      </c>
+      <c r="S24">
+        <v>0.02227860184574779</v>
+      </c>
+      <c r="T24">
+        <v>0.0222786018457478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>203.7327576666667</v>
+      </c>
+      <c r="H25">
+        <v>611.198273</v>
+      </c>
+      <c r="I25">
+        <v>0.1796473735183648</v>
+      </c>
+      <c r="J25">
+        <v>0.1796473735183648</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.241735</v>
+      </c>
+      <c r="O25">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P25">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q25">
+        <v>16.41644605818389</v>
+      </c>
+      <c r="R25">
+        <v>147.748014523655</v>
+      </c>
+      <c r="S25">
+        <v>0.002274049537498931</v>
+      </c>
+      <c r="T25">
+        <v>0.002274049537498932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>203.7327576666667</v>
+      </c>
+      <c r="H26">
+        <v>611.198273</v>
+      </c>
+      <c r="I26">
+        <v>0.1796473735183648</v>
+      </c>
+      <c r="J26">
+        <v>0.1796473735183648</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.16722</v>
+      </c>
+      <c r="N26">
+        <v>0.50166</v>
+      </c>
+      <c r="O26">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P26">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q26">
+        <v>34.06819173702</v>
+      </c>
+      <c r="R26">
+        <v>306.61372563318</v>
+      </c>
+      <c r="S26">
+        <v>0.004719216046421552</v>
+      </c>
+      <c r="T26">
+        <v>0.004719216046421553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>153.427073</v>
+      </c>
+      <c r="H27">
+        <v>460.281219</v>
+      </c>
+      <c r="I27">
+        <v>0.135288850976811</v>
+      </c>
+      <c r="J27">
+        <v>0.135288850976811</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.662797333333334</v>
+      </c>
+      <c r="N27">
+        <v>13.988392</v>
+      </c>
+      <c r="O27">
+        <v>0.7324994586787992</v>
+      </c>
+      <c r="P27">
+        <v>0.7324994586787993</v>
+      </c>
+      <c r="Q27">
+        <v>715.3993468455386</v>
+      </c>
+      <c r="R27">
+        <v>6438.594121609848</v>
+      </c>
+      <c r="S27">
+        <v>0.09909901010579079</v>
+      </c>
+      <c r="T27">
+        <v>0.09909901010579084</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>153.427073</v>
+      </c>
+      <c r="H28">
+        <v>460.281219</v>
+      </c>
+      <c r="I28">
+        <v>0.135288850976811</v>
+      </c>
+      <c r="J28">
+        <v>0.135288850976811</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N28">
+        <v>1.996758</v>
+      </c>
+      <c r="O28">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P28">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q28">
+        <v>102.118911809778</v>
+      </c>
+      <c r="R28">
+        <v>919.0702062880018</v>
+      </c>
+      <c r="S28">
+        <v>0.01414578181829753</v>
+      </c>
+      <c r="T28">
+        <v>0.01414578181829753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>153.427073</v>
+      </c>
+      <c r="H29">
+        <v>460.281219</v>
+      </c>
+      <c r="I29">
+        <v>0.135288850976811</v>
+      </c>
+      <c r="J29">
+        <v>0.135288850976811</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N29">
+        <v>2.36825</v>
+      </c>
+      <c r="O29">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P29">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q29">
+        <v>121.1178885440833</v>
+      </c>
+      <c r="R29">
+        <v>1090.06099689675</v>
+      </c>
+      <c r="S29">
+        <v>0.01677757033710801</v>
+      </c>
+      <c r="T29">
+        <v>0.01677757033710802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>153.427073</v>
+      </c>
+      <c r="H30">
+        <v>460.281219</v>
+      </c>
+      <c r="I30">
+        <v>0.135288850976811</v>
+      </c>
+      <c r="J30">
+        <v>0.135288850976811</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N30">
+        <v>0.241735</v>
+      </c>
+      <c r="O30">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P30">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q30">
+        <v>12.36289783055167</v>
+      </c>
+      <c r="R30">
+        <v>111.266080474965</v>
+      </c>
+      <c r="S30">
+        <v>0.001712541313392085</v>
+      </c>
+      <c r="T30">
+        <v>0.001712541313392086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>153.427073</v>
+      </c>
+      <c r="H31">
+        <v>460.281219</v>
+      </c>
+      <c r="I31">
+        <v>0.135288850976811</v>
+      </c>
+      <c r="J31">
+        <v>0.135288850976811</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.16722</v>
+      </c>
+      <c r="N31">
+        <v>0.50166</v>
+      </c>
+      <c r="O31">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P31">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q31">
+        <v>25.65607514706</v>
+      </c>
+      <c r="R31">
+        <v>230.90467632354</v>
+      </c>
+      <c r="S31">
+        <v>0.003553947402222572</v>
+      </c>
+      <c r="T31">
+        <v>0.003553947402222573</v>
       </c>
     </row>
   </sheetData>
